--- a/基本設計/機能一覧表.xlsx
+++ b/基本設計/機能一覧表.xlsx
@@ -726,14 +726,14 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,10 +1050,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="41.4" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1213,12 +1213,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1414,10 +1414,10 @@
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1467,40 +1467,40 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
